--- a/26_エコー（例題5-10）/kadaiQ.xlsx
+++ b/26_エコー（例題5-10）/kadaiQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/20_GitHub/TecExercise/26_エコー/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/20_GitHub/TecExercise/26_エコー（例題5-10）/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05B7778-D7F7-7F4B-A724-FA31512CC25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4102FC1D-4311-074B-99F1-AA6D13E1ED7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="840" windowWidth="16460" windowHeight="16040" xr2:uid="{AE2B6758-9489-D245-8F41-AE0447B25FDC}"/>
+    <workbookView xWindow="5340" yWindow="500" windowWidth="16460" windowHeight="15500" xr2:uid="{AE2B6758-9489-D245-8F41-AE0447B25FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="１枚目" sheetId="1" r:id="rId1"/>
@@ -221,10 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A0 02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>START</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -322,6 +318,10 @@
     <rPh sb="140" eb="142">
       <t xml:space="preserve">ジッコウスル </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A0 00</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32FF02A-0DAE-6D43-937B-6BF2FBA80F9E}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="F1" s="14"/>
       <c r="G1" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1135,7 +1135,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
@@ -1150,14 +1150,14 @@
         <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -1166,14 +1166,14 @@
         <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -1182,7 +1182,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
@@ -1232,7 +1232,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
@@ -1264,14 +1264,14 @@
         <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -1295,7 +1295,7 @@
     <row r="17" spans="1:7">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
